--- a/PlatEMO/Analysis/finalHvTable_HypE.xlsx
+++ b/PlatEMO/Analysis/finalHvTable_HypE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liaoweiduo/Documents/MATLAB/PlatEMO/PlatEMO/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAB1ED9-F908-A643-A755-D66BDF7C0DEA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A47E51-37E1-064B-A90B-AE6102E76957}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -247,7 +247,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,12 +268,6 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -304,14 +298,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Accent3" xfId="3" builtinId="39"/>
@@ -736,10 +730,10 @@
   <dimension ref="A1:L161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L150" sqref="L150"/>
+      <selection pane="bottomRight" activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -785,7 +779,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="16">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -794,27 +788,27 @@
       <c r="C2">
         <v>1.8498648979486949E-2</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>3.6120925311391591E-2</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>3.6092729770905364E-2</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>3.6131069876982537E-2</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>3.5952513968292091E-2</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>3.5917306740832482E-2</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>3.690284014045777E-2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -823,27 +817,27 @@
       <c r="C3">
         <v>6.6894190239178143E-5</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>5.0268708975263776E-4</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>5.012840822801E-4</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>5.0061832210245255E-4</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>5.0683477393752546E-4</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>5.0592528146800023E-4</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>4.754092088840878E-4</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -852,27 +846,27 @@
       <c r="C4">
         <v>1.1089812252298086E-8</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>2.0622311822090573E-7</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>2.081435542333867E-7</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>2.0947159623955137E-7</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>2.1317359834202203E-7</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>2.0514085663785343E-7</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>1.6731170722662523E-7</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -881,27 +875,27 @@
       <c r="C5">
         <v>3.7934040706406625E-11</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>9.1910228151075107E-10</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>9.3012519307031189E-10</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>9.1643147802063422E-10</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>9.1305908109429087E-10</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>9.7490097430664554E-10</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>7.2239141434428495E-10</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -919,19 +913,19 @@
       <c r="F6">
         <v>0.68195632030211617</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>0.67327742644754451</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>0.64844050983770285</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>0.70543889933502091</v>
       </c>
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" ht="16">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -949,19 +943,19 @@
       <c r="F7">
         <v>0.19341338458033255</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>0.1915678140820179</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>0.19306072800017468</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>0.20333805016533379</v>
       </c>
-      <c r="L7" s="4"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -979,18 +973,18 @@
       <c r="F8">
         <v>1.1303014378692623E-2</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>1.1237481894400003E-2</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>1.1298949074128145E-2</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>1.1732607498884075E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1019,7 +1013,7 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1048,7 +1042,7 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1077,7 +1071,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1106,7 +1100,7 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1135,7 +1129,7 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1164,7 +1158,7 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1193,7 +1187,7 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1222,7 +1216,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1251,7 +1245,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1280,7 +1274,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1309,7 +1303,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1338,7 +1332,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1367,7 +1361,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1396,7 +1390,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1425,7 +1419,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1454,7 +1448,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1483,7 +1477,7 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1507,12 +1501,12 @@
       <c r="H26">
         <v>0.13180515223988098</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1536,12 +1530,12 @@
       <c r="H27">
         <v>8.955631479648226E-3</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1565,12 +1559,12 @@
       <c r="H28">
         <v>1.6956238429655768E-5</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1594,12 +1588,12 @@
       <c r="H29">
         <v>5.5757641887033943E-8</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1623,12 +1617,12 @@
       <c r="H30">
         <v>0.13075898451166204</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="I30" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1652,12 +1646,12 @@
       <c r="H31">
         <v>8.8202838930813744E-3</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I31" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1681,12 +1675,12 @@
       <c r="H32">
         <v>1.6820691845998329E-5</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I32" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1710,12 +1704,12 @@
       <c r="H33">
         <v>1.1243570761680592E-8</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1739,12 +1733,12 @@
       <c r="H34">
         <v>1.0641970908046599</v>
       </c>
-      <c r="I34" s="11" t="s">
+      <c r="I34" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1768,12 +1762,12 @@
       <c r="H35">
         <v>1.5654717111917675</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="I35" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1797,12 +1791,12 @@
       <c r="H36">
         <v>1.8716687663638183</v>
       </c>
-      <c r="I36" s="11" t="s">
+      <c r="I36" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1826,12 +1820,12 @@
       <c r="H37">
         <v>1.9172283620019805</v>
       </c>
-      <c r="I37" s="11" t="s">
+      <c r="I37" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1855,12 +1849,12 @@
       <c r="H38">
         <v>0.73597589074992553</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1884,12 +1878,12 @@
       <c r="H39">
         <v>0.48064871904166057</v>
       </c>
-      <c r="I39" s="11" t="s">
+      <c r="I39" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -1913,12 +1907,12 @@
       <c r="H40">
         <v>0.27328806058159677</v>
       </c>
-      <c r="I40" s="11" t="s">
+      <c r="I40" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1942,12 +1936,12 @@
       <c r="H41">
         <v>0.15908405683047505</v>
       </c>
-      <c r="I41" s="11" t="s">
+      <c r="I41" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1971,12 +1965,12 @@
       <c r="H42">
         <v>1.3310000000000004</v>
       </c>
-      <c r="I42" s="11" t="s">
+      <c r="I42" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -2000,12 +1994,12 @@
       <c r="H43">
         <v>1.6090824737511873</v>
       </c>
-      <c r="I43" s="11" t="s">
+      <c r="I43" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -2029,12 +2023,12 @@
       <c r="H44">
         <v>2.1435796701674872</v>
       </c>
-      <c r="I44" s="11" t="s">
+      <c r="I44" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -2058,12 +2052,12 @@
       <c r="H45">
         <v>2.5935919681367903</v>
       </c>
-      <c r="I45" s="11" t="s">
+      <c r="I45" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -2087,12 +2081,12 @@
       <c r="H46">
         <v>0.74795635188798604</v>
       </c>
-      <c r="I46" s="11" t="s">
+      <c r="I46" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -2116,12 +2110,12 @@
       <c r="H47">
         <v>1.2749167316240853</v>
       </c>
-      <c r="I47" s="11" t="s">
+      <c r="I47" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -2145,12 +2139,12 @@
       <c r="H48">
         <v>1.7961603511297504</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="I48" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -2174,12 +2168,12 @@
       <c r="H49">
         <v>1.3014817580904057</v>
       </c>
-      <c r="I49" s="11" t="s">
+      <c r="I49" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -2203,12 +2197,12 @@
       <c r="H50">
         <v>8.2840861262322854</v>
       </c>
-      <c r="I50" s="11" t="s">
+      <c r="I50" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -2232,12 +2226,12 @@
       <c r="H51">
         <v>50.042963141160911</v>
       </c>
-      <c r="I51" s="11" t="s">
+      <c r="I51" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -2261,12 +2255,12 @@
       <c r="H52">
         <v>544.90695299006927</v>
       </c>
-      <c r="I52" s="11" t="s">
+      <c r="I52" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -2290,12 +2284,12 @@
       <c r="H53">
         <v>2407.1148149547857</v>
       </c>
-      <c r="I53" s="11" t="s">
+      <c r="I53" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -2324,7 +2318,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -2353,7 +2347,7 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -2382,7 +2376,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -2411,7 +2405,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -2435,12 +2429,12 @@
       <c r="H58">
         <v>0.21741827726389262</v>
       </c>
-      <c r="I58" s="11" t="s">
+      <c r="I58" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -2464,12 +2458,12 @@
       <c r="H59">
         <v>5.2007991985830337E-2</v>
       </c>
-      <c r="I59" s="11" t="s">
+      <c r="I59" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -2493,12 +2487,12 @@
       <c r="H60">
         <v>1.7204264494762683E-2</v>
       </c>
-      <c r="I60" s="11" t="s">
+      <c r="I60" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -2522,12 +2516,12 @@
       <c r="H61">
         <v>3.0480198335804563E-3</v>
       </c>
-      <c r="I61" s="11" t="s">
+      <c r="I61" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -2551,12 +2545,12 @@
       <c r="H62">
         <v>0.13145165328264588</v>
       </c>
-      <c r="I62" s="11" t="s">
+      <c r="I62" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -2580,12 +2574,12 @@
       <c r="H63">
         <v>6.979235162530263E-3</v>
       </c>
-      <c r="I63" s="11" t="s">
+      <c r="I63" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -2609,12 +2603,12 @@
       <c r="H64">
         <v>1.741375059341633E-5</v>
       </c>
-      <c r="I64" s="11" t="s">
+      <c r="I64" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -2638,12 +2632,12 @@
       <c r="H65">
         <v>5.2018297391263764E-8</v>
       </c>
-      <c r="I65" s="11" t="s">
+      <c r="I65" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -2667,12 +2661,12 @@
       <c r="H66">
         <v>0.99384353351573329</v>
       </c>
-      <c r="I66" s="11" t="s">
+      <c r="I66" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -2696,12 +2690,12 @@
       <c r="H67">
         <v>1.506529180600253</v>
       </c>
-      <c r="I67" s="11" t="s">
+      <c r="I67" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -2725,12 +2719,12 @@
       <c r="H68">
         <v>1.9117639241727413</v>
       </c>
-      <c r="I68" s="11" t="s">
+      <c r="I68" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -2754,7 +2748,7 @@
       <c r="H69">
         <v>1.8996999080021824</v>
       </c>
-      <c r="I69" s="11" t="s">
+      <c r="I69" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2899,7 +2893,7 @@
       <c r="H74">
         <v>0.74829062307585992</v>
       </c>
-      <c r="I74" s="11" t="s">
+      <c r="I74" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2928,7 +2922,7 @@
       <c r="H75">
         <v>1.2732350369961494</v>
       </c>
-      <c r="I75" s="11" t="s">
+      <c r="I75" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2957,7 +2951,7 @@
       <c r="H76">
         <v>1.8368918587723317</v>
       </c>
-      <c r="I76" s="11" t="s">
+      <c r="I76" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2986,7 +2980,7 @@
       <c r="H77">
         <v>1.297914439287934</v>
       </c>
-      <c r="I77" s="11" t="s">
+      <c r="I77" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3015,7 +3009,7 @@
       <c r="H78">
         <v>0.74398437178489596</v>
       </c>
-      <c r="I78" s="11" t="s">
+      <c r="I78" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3044,7 +3038,7 @@
       <c r="H79">
         <v>0.70001057894138619</v>
       </c>
-      <c r="I79" s="11" t="s">
+      <c r="I79" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3073,7 +3067,7 @@
       <c r="H80">
         <v>0.46546261442734771</v>
       </c>
-      <c r="I80" s="11" t="s">
+      <c r="I80" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3102,7 +3096,7 @@
       <c r="H81">
         <v>0.25267078428426937</v>
       </c>
-      <c r="I81" s="11" t="s">
+      <c r="I81" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3131,7 +3125,7 @@
       <c r="H82">
         <v>0.56492993672926972</v>
       </c>
-      <c r="I82" s="11" t="s">
+      <c r="I82" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3160,7 +3154,7 @@
       <c r="H83">
         <v>1.104160416033922</v>
       </c>
-      <c r="I83" s="11" t="s">
+      <c r="I83" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3189,7 +3183,7 @@
       <c r="H84">
         <v>1.5881212917201386</v>
       </c>
-      <c r="I84" s="11" t="s">
+      <c r="I84" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3218,7 +3212,7 @@
       <c r="H85">
         <v>1.5875106816515439</v>
       </c>
-      <c r="I85" s="11" t="s">
+      <c r="I85" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3247,7 +3241,7 @@
       <c r="H86">
         <v>0.13913237658999406</v>
       </c>
-      <c r="I86" s="11" t="s">
+      <c r="I86" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3276,7 +3270,7 @@
       <c r="H87">
         <v>4.1606257360614164E-2</v>
       </c>
-      <c r="I87" s="11" t="s">
+      <c r="I87" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3305,7 +3299,7 @@
       <c r="H88">
         <v>6.8017488101131934E-3</v>
       </c>
-      <c r="I88" s="11" t="s">
+      <c r="I88" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3334,7 +3328,7 @@
       <c r="H89">
         <v>2.0223130796755964E-3</v>
       </c>
-      <c r="I89" s="11" t="s">
+      <c r="I89" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3363,7 +3357,7 @@
       <c r="H90">
         <v>1.1923893024411438</v>
       </c>
-      <c r="I90" s="11" t="s">
+      <c r="I90" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3392,7 +3386,7 @@
       <c r="H91">
         <v>1.5816158639617166</v>
       </c>
-      <c r="I91" s="11" t="s">
+      <c r="I91" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3421,7 +3415,7 @@
       <c r="H92">
         <v>2.0837236010700448</v>
       </c>
-      <c r="I92" s="11" t="s">
+      <c r="I92" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3450,7 +3444,7 @@
       <c r="H93">
         <v>2.5645491202919861</v>
       </c>
-      <c r="I93" s="11" t="s">
+      <c r="I93" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3479,7 +3473,7 @@
       <c r="H94">
         <v>1.1118239072254912</v>
       </c>
-      <c r="I94" s="11" t="s">
+      <c r="I94" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3508,7 +3502,7 @@
       <c r="H95">
         <v>40.4735225271193</v>
       </c>
-      <c r="I95" s="11" t="s">
+      <c r="I95" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3537,7 +3531,7 @@
       <c r="H96">
         <v>1887081.3481315156</v>
       </c>
-      <c r="I96" s="11" t="s">
+      <c r="I96" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3566,7 +3560,7 @@
       <c r="H97">
         <v>74520946143.196915</v>
       </c>
-      <c r="I97" s="11" t="s">
+      <c r="I97" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3595,7 +3589,7 @@
       <c r="H98">
         <v>57.097673471497288</v>
       </c>
-      <c r="I98" s="11" t="s">
+      <c r="I98" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3624,7 +3618,7 @@
       <c r="H99">
         <v>5930.8773012705151</v>
       </c>
-      <c r="I99" s="11" t="s">
+      <c r="I99" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3653,7 +3647,7 @@
       <c r="H100">
         <v>18943913.993207447</v>
       </c>
-      <c r="I100" s="11" t="s">
+      <c r="I100" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3682,7 +3676,7 @@
       <c r="H101">
         <v>7186156486.800046</v>
       </c>
-      <c r="I101" s="11" t="s">
+      <c r="I101" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3711,7 +3705,7 @@
       <c r="H102">
         <v>58.972981912755323</v>
       </c>
-      <c r="I102" s="11" t="s">
+      <c r="I102" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3740,7 +3734,7 @@
       <c r="H103">
         <v>5674.6328316703166</v>
       </c>
-      <c r="I103" s="11" t="s">
+      <c r="I103" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3769,7 +3763,7 @@
       <c r="H104">
         <v>19478526.45547533</v>
       </c>
-      <c r="I104" s="11" t="s">
+      <c r="I104" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3798,7 +3792,7 @@
       <c r="H105">
         <v>7835792970.8986616</v>
       </c>
-      <c r="I105" s="11" t="s">
+      <c r="I105" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3827,7 +3821,7 @@
       <c r="H106">
         <v>35.938400144179731</v>
       </c>
-      <c r="I106" s="11" t="s">
+      <c r="I106" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3856,7 +3850,7 @@
       <c r="H107">
         <v>4891.5744869180426</v>
       </c>
-      <c r="I107" s="11" t="s">
+      <c r="I107" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3885,7 +3879,7 @@
       <c r="H108">
         <v>15167634.250326032</v>
       </c>
-      <c r="I108" s="11" t="s">
+      <c r="I108" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3914,7 +3908,7 @@
       <c r="H109">
         <v>5642518981.7633419</v>
       </c>
-      <c r="I109" s="11" t="s">
+      <c r="I109" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3943,7 +3937,7 @@
       <c r="H110">
         <v>33.320563609070334</v>
       </c>
-      <c r="I110" s="11" t="s">
+      <c r="I110" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3972,7 +3966,7 @@
       <c r="H111">
         <v>4575.6694051287514</v>
       </c>
-      <c r="I111" s="11" t="s">
+      <c r="I111" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4001,7 +3995,7 @@
       <c r="H112">
         <v>18071158.246498346</v>
       </c>
-      <c r="I112" s="11" t="s">
+      <c r="I112" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4030,7 +4024,7 @@
       <c r="H113">
         <v>7125465534.9875975</v>
       </c>
-      <c r="I113" s="11" t="s">
+      <c r="I113" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4059,7 +4053,7 @@
       <c r="H114">
         <v>32.879358100034402</v>
       </c>
-      <c r="I114" s="11" t="s">
+      <c r="I114" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4088,7 +4082,7 @@
       <c r="H115">
         <v>4524.8716140921661</v>
       </c>
-      <c r="I115" s="11" t="s">
+      <c r="I115" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4117,7 +4111,7 @@
       <c r="H116">
         <v>18193305.581522394</v>
       </c>
-      <c r="I116" s="11" t="s">
+      <c r="I116" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4146,7 +4140,7 @@
       <c r="H117">
         <v>6518996210.0929623</v>
       </c>
-      <c r="I117" s="11" t="s">
+      <c r="I117" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4175,7 +4169,7 @@
       <c r="H118">
         <v>35.806779134288334</v>
       </c>
-      <c r="I118" s="11" t="s">
+      <c r="I118" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4204,7 +4198,7 @@
       <c r="H119">
         <v>4888.7921572197884</v>
       </c>
-      <c r="I119" s="11" t="s">
+      <c r="I119" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4233,7 +4227,7 @@
       <c r="H120">
         <v>17917875.115397461</v>
       </c>
-      <c r="I120" s="11" t="s">
+      <c r="I120" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4262,7 +4256,7 @@
       <c r="H121">
         <v>6850448623.7445335</v>
       </c>
-      <c r="I121" s="11" t="s">
+      <c r="I121" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4291,7 +4285,7 @@
       <c r="H122">
         <v>30.699197872001804</v>
       </c>
-      <c r="I122" s="11" t="s">
+      <c r="I122" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4320,7 +4314,7 @@
       <c r="H123">
         <v>4198.4489916621078</v>
       </c>
-      <c r="I123" s="11" t="s">
+      <c r="I123" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4349,7 +4343,7 @@
       <c r="H124">
         <v>14852404.189908531</v>
       </c>
-      <c r="I124" s="11" t="s">
+      <c r="I124" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4378,7 +4372,7 @@
       <c r="H125">
         <v>6135180796.8249674</v>
       </c>
-      <c r="I125" s="11" t="s">
+      <c r="I125" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4407,7 +4401,7 @@
       <c r="H126">
         <v>35.503905262281883</v>
       </c>
-      <c r="I126" s="11" t="s">
+      <c r="I126" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4436,7 +4430,7 @@
       <c r="H127">
         <v>4574.4642451651671</v>
       </c>
-      <c r="I127" s="11" t="s">
+      <c r="I127" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4465,7 +4459,7 @@
       <c r="H128">
         <v>17090637.771813083</v>
       </c>
-      <c r="I128" s="11" t="s">
+      <c r="I128" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4494,7 +4488,7 @@
       <c r="H129">
         <v>6336151328.3675604</v>
       </c>
-      <c r="I129" s="11" t="s">
+      <c r="I129" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4610,7 +4604,7 @@
       <c r="H133">
         <v>0</v>
       </c>
-      <c r="I133" s="11" t="s">
+      <c r="I133" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4639,7 +4633,7 @@
       <c r="H134">
         <v>36.159768472984538</v>
       </c>
-      <c r="I134" s="11" t="s">
+      <c r="I134" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4668,7 +4662,7 @@
       <c r="H135">
         <v>34144.509172677834</v>
       </c>
-      <c r="I135" s="11" t="s">
+      <c r="I135" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4697,7 +4691,7 @@
       <c r="H136">
         <v>118983438898.77841</v>
       </c>
-      <c r="I136" s="11" t="s">
+      <c r="I136" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4726,7 +4720,7 @@
       <c r="H137">
         <v>6.2412410646846232E+16</v>
       </c>
-      <c r="I137" s="11" t="s">
+      <c r="I137" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4755,7 +4749,7 @@
       <c r="H138">
         <v>2.9503119142040624</v>
       </c>
-      <c r="I138" s="11" t="s">
+      <c r="I138" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4784,7 +4778,7 @@
       <c r="H139">
         <v>7.8235367056233969</v>
       </c>
-      <c r="I139" s="11" t="s">
+      <c r="I139" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4813,7 +4807,7 @@
       <c r="H140">
         <v>12.929298304253326</v>
       </c>
-      <c r="I140" s="11" t="s">
+      <c r="I140" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4842,7 +4836,7 @@
       <c r="H141">
         <v>23.015933297715037</v>
       </c>
-      <c r="I141" s="11" t="s">
+      <c r="I141" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4871,7 +4865,7 @@
       <c r="H142">
         <v>54.87285044299076</v>
       </c>
-      <c r="I142" s="11" t="s">
+      <c r="I142" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4900,7 +4894,7 @@
       <c r="H143">
         <v>5597.635727727321</v>
       </c>
-      <c r="I143" s="11" t="s">
+      <c r="I143" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4929,7 +4923,7 @@
       <c r="H144">
         <v>18824341.84322419</v>
       </c>
-      <c r="I144" s="11" t="s">
+      <c r="I144" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4958,7 +4952,7 @@
       <c r="H145">
         <v>7569622594.5121641</v>
       </c>
-      <c r="I145" s="11" t="s">
+      <c r="I145" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4987,7 +4981,7 @@
       <c r="H146">
         <v>58.880927671890376</v>
       </c>
-      <c r="I146" s="11" t="s">
+      <c r="I146" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5016,7 +5010,7 @@
       <c r="H147">
         <v>5462.2211555868762</v>
       </c>
-      <c r="I147" s="11" t="s">
+      <c r="I147" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5045,7 +5039,7 @@
       <c r="H148">
         <v>19356381.772683658</v>
       </c>
-      <c r="I148" s="11" t="s">
+      <c r="I148" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5074,7 +5068,7 @@
       <c r="H149">
         <v>8069993091.1566896</v>
       </c>
-      <c r="I149" s="11" t="s">
+      <c r="I149" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5103,7 +5097,7 @@
       <c r="H150">
         <v>35.415493190589508</v>
       </c>
-      <c r="I150" s="11" t="s">
+      <c r="I150" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5132,7 +5126,7 @@
       <c r="H151">
         <v>4813.4953892240828</v>
       </c>
-      <c r="I151" s="11" t="s">
+      <c r="I151" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5161,7 +5155,7 @@
       <c r="H152">
         <v>15888809.542397207</v>
       </c>
-      <c r="I152" s="11" t="s">
+      <c r="I152" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5190,7 +5184,7 @@
       <c r="H153">
         <v>5632154280.7611008</v>
       </c>
-      <c r="I153" s="11" t="s">
+      <c r="I153" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5219,7 +5213,7 @@
       <c r="H154">
         <v>0.66984207062756995</v>
       </c>
-      <c r="I154" s="11" t="s">
+      <c r="I154" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5248,7 +5242,7 @@
       <c r="H155">
         <v>0.41210536424688843</v>
       </c>
-      <c r="I155" s="11" t="s">
+      <c r="I155" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5277,7 +5271,7 @@
       <c r="H156">
         <v>0.27169255534599185</v>
       </c>
-      <c r="I156" s="11" t="s">
+      <c r="I156" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5306,7 +5300,7 @@
       <c r="H157">
         <v>0.27378149819751807</v>
       </c>
-      <c r="I157" s="11" t="s">
+      <c r="I157" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5335,7 +5329,7 @@
       <c r="H158">
         <v>0.25139362322702391</v>
       </c>
-      <c r="I158" s="11" t="s">
+      <c r="I158" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5364,7 +5358,7 @@
       <c r="H159">
         <v>8.1932496025083873E-2</v>
       </c>
-      <c r="I159" s="11" t="s">
+      <c r="I159" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5393,7 +5387,7 @@
       <c r="H160">
         <v>0.1474189561739257</v>
       </c>
-      <c r="I160" s="11" t="s">
+      <c r="I160" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5422,7 +5416,7 @@
       <c r="H161">
         <v>0</v>
       </c>
-      <c r="I161" s="11" t="s">
+      <c r="I161" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5486,6 +5480,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5498,5 +5493,6 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/PlatEMO/Analysis/finalHvTable_HypE.xlsx
+++ b/PlatEMO/Analysis/finalHvTable_HypE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liaoweiduo/Documents/MATLAB/PlatEMO/PlatEMO/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E1DFD3-16AE-B341-8B55-D279C1E36176}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91424AD0-6345-164B-828F-6B8837F82D5C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -317,222 +317,48 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="18">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.49995422223578601"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.49995422223578601"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.49995422223578601"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -606,7 +432,38 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
     </dxf>
   </dxfs>
@@ -921,11 +778,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L60" sqref="L60"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1667,7 +1524,7 @@
         <v>3.0798304059265503E-7</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16">
+    <row r="26" spans="1:9">
       <c r="A26" s="8" t="s">
         <v>1</v>
       </c>
@@ -1692,11 +1549,11 @@
       <c r="H26" s="2">
         <v>0.13909534557075026</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="9">
         <v>0.11628964919949167</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="16">
+    <row r="27" spans="1:9">
       <c r="A27" s="8" t="s">
         <v>1</v>
       </c>
@@ -1715,7 +1572,7 @@
       <c r="F27" s="9">
         <v>4.1751737153185364E-2</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="9">
         <v>4.0477852231956581E-2</v>
       </c>
       <c r="H27" s="9">
@@ -1725,7 +1582,7 @@
         <v>3.8173497059538555E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16">
+    <row r="28" spans="1:9">
       <c r="A28" s="8" t="s">
         <v>1</v>
       </c>
@@ -1744,7 +1601,7 @@
       <c r="F28" s="9">
         <v>6.6470176213713015E-3</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="9">
         <v>6.9204482617495162E-3</v>
       </c>
       <c r="H28" s="2">
@@ -5614,48 +5471,16 @@
   </sheetData>
   <autoFilter ref="A1:I161" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A2:I161">
-      <sortCondition sortBy="fontColor" ref="A2:A161" dxfId="3"/>
-      <sortCondition descending="1" sortBy="fontColor" ref="A2:A161" dxfId="2"/>
+      <sortCondition sortBy="fontColor" ref="A2:A161" dxfId="17"/>
+      <sortCondition descending="1" sortBy="fontColor" ref="A2:A161" dxfId="16"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="C2:I161">
-    <cfRule type="expression" dxfId="21" priority="14">
+    <cfRule type="expression" dxfId="1" priority="15">
       <formula>C2=MIN($C2:$I2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="13">
+    <cfRule type="expression" dxfId="0" priority="14">
       <formula>C2=MAX($C2:$I2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="19" priority="11">
-      <formula>L6=MAX($C6:$I6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="12">
-      <formula>L6=MIN($C6:$I6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L7">
-    <cfRule type="expression" dxfId="17" priority="7">
-      <formula>L7=MAX($C7:$I7)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="8">
-      <formula>L7=MIN($C7:$I7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
-    <cfRule type="expression" dxfId="15" priority="3">
-      <formula>L9=MAX($C9:$I9)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4">
-      <formula>L9=MIN($C9:$I9)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="13" priority="1">
-      <formula>L10=MAX($C10:$I10)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2">
-      <formula>L10=MIN($C10:$I10)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
